--- a/data/trans_dic/P15B_3_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,28; 54,21</t>
+          <t>7,34; 53,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 27,55</t>
+          <t>2,81; 26,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,57</t>
+          <t>0,0; 28,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,14</t>
+          <t>0,0; 35,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +750,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,96</t>
+          <t>0,0; 54,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,51; 39,61</t>
+          <t>4,54; 41,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,3</t>
+          <t>0,0; 13,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 35,33</t>
+          <t>4,5; 36,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 29,66</t>
+          <t>5,89; 29,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 26,49</t>
+          <t>4,82; 27,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 19,05</t>
+          <t>1,4; 21,22</t>
         </is>
       </c>
     </row>
@@ -869,17 +870,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,92; 34,3</t>
+          <t>2,93; 30,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,57</t>
+          <t>0,0; 35,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,12</t>
+          <t>0,0; 27,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,85</t>
+          <t>0,0; 25,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,09</t>
+          <t>0,0; 20,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +910,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 21,1</t>
+          <t>1,6; 17,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 19,3</t>
+          <t>2,44; 21,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 18,36</t>
+          <t>1,72; 16,74</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,63; 85,11</t>
+          <t>49,58; 83,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,03; 35,13</t>
+          <t>14,3; 36,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,99; 48,32</t>
+          <t>15,5; 50,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 42,39</t>
+          <t>11,34; 42,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,48</t>
+          <t>0,0; 22,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,48; 75,53</t>
+          <t>41,66; 76,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,09; 28,59</t>
+          <t>10,59; 28,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,7; 37,36</t>
+          <t>10,5; 38,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 34,86</t>
+          <t>9,41; 32,81</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,44; 47,04</t>
+          <t>19,3; 48,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,95; 34,57</t>
+          <t>17,96; 33,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 28,76</t>
+          <t>8,54; 28,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,85; 39,85</t>
+          <t>16,05; 39,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 50,59</t>
+          <t>13,87; 51,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 25,44</t>
+          <t>4,36; 24,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 23,43</t>
+          <t>2,52; 23,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 26,59</t>
+          <t>5,84; 27,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,69; 44,81</t>
+          <t>21,73; 46,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,23; 28,24</t>
+          <t>15,3; 27,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 21,73</t>
+          <t>8,01; 21,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,08; 29,42</t>
+          <t>14,51; 30,72</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,92; 61,22</t>
+          <t>8,59; 65,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,93; 57,77</t>
+          <t>24,3; 56,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 32,65</t>
+          <t>7,05; 30,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,49; 60,89</t>
+          <t>23,11; 62,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,09</t>
+          <t>0,0; 29,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,2</t>
+          <t>0,0; 13,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 26,88</t>
+          <t>5,09; 25,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,45; 20,23</t>
+          <t>6,55; 20,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,68; 34,81</t>
+          <t>5,87; 32,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,83; 28,69</t>
+          <t>11,73; 28,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,43; 23,8</t>
+          <t>7,83; 24,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,35; 36,37</t>
+          <t>15,18; 37,92</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1450,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,53</t>
+          <t>0,0; 5,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1469,7 +1470,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,24</t>
+          <t>0,0; 4,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,7; 41,51</t>
+          <t>23,89; 41,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,04; 26,7</t>
+          <t>17,25; 27,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,14; 20,34</t>
+          <t>10,22; 20,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,59; 31,3</t>
+          <t>17,65; 31,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,76; 18,12</t>
+          <t>5,29; 18,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,02</t>
+          <t>2,72; 9,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,91</t>
+          <t>4,25; 11,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,77; 11,88</t>
+          <t>4,73; 11,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,02; 28,57</t>
+          <t>17,16; 29,1</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,15; 17,12</t>
+          <t>11,11; 17,44</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,08</t>
+          <t>8,15; 14,55</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,81; 19,69</t>
+          <t>11,63; 19,12</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en el trabajo en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3019</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2793</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3882</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3018</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7568</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5848</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3430</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>925; 6681</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>955; 8973</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6181</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8524</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1804</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9379</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>910; 8422</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3117</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>917; 7495</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3019; 15155</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2006; 11278</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>658; 9982</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3802</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1080</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1417</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3802</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3023</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3415</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1792</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>923; 9634</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5906</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6574</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1709</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5722</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4815</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1884</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>919; 9903</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>951; 8198</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>814; 7918</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19669</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13843</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8994</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8233</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19668</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13843</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8994</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8775</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14023; 23694</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8551; 22028</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4815; 15773</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3677; 13896</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1516</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1893</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1871</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2745</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13849; 25320</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7924; 21381</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4312; 15989</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4179; 14571</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13009</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>24173</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9979</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>18005</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7521</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6340</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6813</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20529</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>30513</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>13850</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>24818</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7532; 19117</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17170; 32444</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5037; 16862</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10668; 26314</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3469; 12953</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2122; 12150</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>968; 9020</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2891; 13844</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13917; 29656</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>22076; 40376</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7804; 21279</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>16826; 35639</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3797</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16532</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6660</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>15459</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2202</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5285</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6363</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5764</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18734</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>11945</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>21821</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1086; 8293</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9542; 22094</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2875; 12453</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8852; 24047</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6718</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7591</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2059; 10434</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3480; 11010</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2061; 11388</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11437; 28152</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6360; 20281</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13879; 34670</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1805</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1763</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3098</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1908</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4774</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2181</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1160</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1921</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4972</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2157</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1347</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>39493</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>62196</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>29542</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>46487</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>9488</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>13446</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>14118</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>15772</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>48980</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>75642</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>43660</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>62259</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>29153; 50071</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>49496; 77841</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>20213; 40504</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>34759; 62641</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4963; 17783</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>6941; 23649</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8146; 22882</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>9820; 23560</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>37046; 62814</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>60244; 94567</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>31716; 56626</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>47056; 77360</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P15B_3_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
